--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -2,45 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TestLeaf\Desktop\Sample\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15315" windowHeight="7590"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Uname</t>
+    <t>fName</t>
   </si>
   <si>
-    <t>pwd</t>
+    <t>lName</t>
   </si>
   <si>
-    <t>DemoSalesManager</t>
+    <t>venkatesh</t>
   </si>
   <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
-    <t>DemoCSR</t>
+    <t>swaminathan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,30 +40,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,35 +57,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,43 +367,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>